--- a/src/resources/mappings/freetext_column_mappings.xlsx
+++ b/src/resources/mappings/freetext_column_mappings.xlsx
@@ -7,7 +7,10 @@
     <sheet state="visible" name="descriptor" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="resolution_description" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">complaint_type!$A$1:$B$62</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">resolution_description!$A$1:$B$322</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -183,9 +186,6 @@
     <t>Cooling Tower</t>
   </si>
   <si>
-    <t>cooling_tower</t>
-  </si>
-  <si>
     <t>Pet Shop</t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>Vaccine Mandate Non-Compliance</t>
   </si>
   <si>
-    <t>tobacco_enforcement</t>
+    <t>covid</t>
   </si>
   <si>
     <t>Face Covering Violation</t>
@@ -1377,7 +1377,7 @@
     <t>The Department of Health and Mental Hygiene attempted to investigate the complaint and could not locate the establishment or an incorrect address was provided.  Please confirm the address provided and place another complaint.</t>
   </si>
   <si>
-    <t>wrong_address</t>
+    <t>incorrect_info_provided</t>
   </si>
   <si>
     <t>The Department of Health and Mental Hygiene attempted to investigate the complaint and could not locate the establishment or an incorrect address was provided. Please confirm the address provided and place another complaint.</t>
@@ -2203,6 +2203,9 @@
   </si>
   <si>
     <t>This SR was administratively closed. The issue you reported was addressed.</t>
+  </si>
+  <si>
+    <t>inactive</t>
   </si>
   <si>
     <t>This complaint was closed.  For more information  call (646) 632-6104.</t>
@@ -2533,6 +2536,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2899,12 +2905,12 @@
         <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
@@ -2912,7 +2918,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>27</v>
@@ -2920,7 +2926,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>10</v>
@@ -2928,7 +2934,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>10</v>
@@ -2936,7 +2942,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -2944,7 +2950,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>18</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>18</v>
@@ -2960,31 +2966,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>31</v>
@@ -2992,7 +2998,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>12</v>
@@ -3000,15 +3006,15 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>18</v>
@@ -3016,7 +3022,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>10</v>
@@ -3024,13 +3030,14 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$B$62"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3053,1234 +3060,1234 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="C62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="C67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89">
@@ -4288,1091 +4295,1091 @@
         <v>33</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C92" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="C101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C103" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C107" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C110" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="C115" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="C116" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C117" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="C125" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C128" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="C137" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="C146" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="C147" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C148" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C149" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="C150" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C151" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="C152" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="C158" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="C160" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167">
@@ -5380,349 +5387,349 @@
         <v>38</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="C168" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="C174" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="C175" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C176" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="C179" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="C181" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="C182" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C187" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="C188" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="C190" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="C191" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5746,10 +5753,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -5772,10 +5779,10 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5798,10 +5805,10 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5824,10 +5831,10 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5850,10 +5857,10 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5876,10 +5883,10 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5902,10 +5909,10 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5928,10 +5935,10 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5954,10 +5961,10 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5980,10 +5987,10 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6006,10 +6013,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6032,10 +6039,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6058,10 +6065,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6084,10 +6091,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -6110,10 +6117,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6136,10 +6143,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6162,10 +6169,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6188,10 +6195,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6214,10 +6221,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6240,10 +6247,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6266,10 +6273,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -6292,10 +6299,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6318,10 +6325,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -6344,10 +6351,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -6370,10 +6377,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -6396,10 +6403,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -6422,10 +6429,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -6448,10 +6455,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -6474,10 +6481,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -6500,10 +6507,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -6526,10 +6533,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -6552,10 +6559,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -6578,10 +6585,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -6604,10 +6611,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -6630,10 +6637,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -6656,10 +6663,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -6682,10 +6689,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -6708,10 +6715,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -6734,10 +6741,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -6760,10 +6767,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -6786,10 +6793,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -6812,10 +6819,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -6838,10 +6845,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -6864,10 +6871,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -6890,10 +6897,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -6916,10 +6923,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -6942,10 +6949,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -6968,10 +6975,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -6994,10 +7001,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -7020,10 +7027,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -7046,10 +7053,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -7072,10 +7079,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -7098,10 +7105,10 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -7124,10 +7131,10 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -7150,10 +7157,10 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -7176,10 +7183,10 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -7202,10 +7209,10 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -7228,10 +7235,10 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -7254,10 +7261,10 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -7280,10 +7287,10 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -7306,10 +7313,10 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -7332,10 +7339,10 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -7358,10 +7365,10 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -7384,10 +7391,10 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -7410,10 +7417,10 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -7436,10 +7443,10 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -7462,10 +7469,10 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -7488,10 +7495,10 @@
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -7514,10 +7521,10 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -7540,10 +7547,10 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -7566,10 +7573,10 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -7592,10 +7599,10 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -7618,10 +7625,10 @@
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -7644,10 +7651,10 @@
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -7670,10 +7677,10 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -7696,10 +7703,10 @@
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -7722,10 +7729,10 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -7748,10 +7755,10 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -7774,10 +7781,10 @@
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -7800,10 +7807,10 @@
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -7826,10 +7833,10 @@
     </row>
     <row r="81">
       <c r="A81" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -7852,10 +7859,10 @@
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -7878,10 +7885,10 @@
     </row>
     <row r="83">
       <c r="A83" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -7904,10 +7911,10 @@
     </row>
     <row r="84">
       <c r="A84" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -7930,10 +7937,10 @@
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -7956,10 +7963,10 @@
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -7982,10 +7989,10 @@
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -8008,10 +8015,10 @@
     </row>
     <row r="88">
       <c r="A88" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -8034,10 +8041,10 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -8060,10 +8067,10 @@
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -8086,10 +8093,10 @@
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -8112,10 +8119,10 @@
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -8138,10 +8145,10 @@
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -8164,10 +8171,10 @@
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -8190,10 +8197,10 @@
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -8216,10 +8223,10 @@
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -8242,10 +8249,10 @@
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -8268,10 +8275,10 @@
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -8294,10 +8301,10 @@
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -8320,10 +8327,10 @@
     </row>
     <row r="100">
       <c r="A100" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -8346,10 +8353,10 @@
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -8372,10 +8379,10 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -8398,10 +8405,10 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -8424,10 +8431,10 @@
     </row>
     <row r="104">
       <c r="A104" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -8450,10 +8457,10 @@
     </row>
     <row r="105">
       <c r="A105" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -8476,10 +8483,10 @@
     </row>
     <row r="106">
       <c r="A106" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -8502,10 +8509,10 @@
     </row>
     <row r="107">
       <c r="A107" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -8528,10 +8535,10 @@
     </row>
     <row r="108">
       <c r="A108" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -8554,10 +8561,10 @@
     </row>
     <row r="109">
       <c r="A109" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -8580,10 +8587,10 @@
     </row>
     <row r="110">
       <c r="A110" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -8606,10 +8613,10 @@
     </row>
     <row r="111">
       <c r="A111" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -8632,10 +8639,10 @@
     </row>
     <row r="112">
       <c r="A112" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -8658,10 +8665,10 @@
     </row>
     <row r="113">
       <c r="A113" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -8684,10 +8691,10 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -8710,10 +8717,10 @@
     </row>
     <row r="115">
       <c r="A115" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -8736,10 +8743,10 @@
     </row>
     <row r="116">
       <c r="A116" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -8762,10 +8769,10 @@
     </row>
     <row r="117">
       <c r="A117" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -8788,10 +8795,10 @@
     </row>
     <row r="118">
       <c r="A118" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -8814,10 +8821,10 @@
     </row>
     <row r="119">
       <c r="A119" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -8840,10 +8847,10 @@
     </row>
     <row r="120">
       <c r="A120" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -8866,10 +8873,10 @@
     </row>
     <row r="121">
       <c r="A121" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -8892,10 +8899,10 @@
     </row>
     <row r="122">
       <c r="A122" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -8918,10 +8925,10 @@
     </row>
     <row r="123">
       <c r="A123" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -8944,10 +8951,10 @@
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -8970,10 +8977,10 @@
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -8996,10 +9003,10 @@
     </row>
     <row r="126">
       <c r="A126" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -9022,10 +9029,10 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -9048,10 +9055,10 @@
     </row>
     <row r="128">
       <c r="A128" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -9074,10 +9081,10 @@
     </row>
     <row r="129">
       <c r="A129" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -9100,10 +9107,10 @@
     </row>
     <row r="130">
       <c r="A130" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -9126,10 +9133,10 @@
     </row>
     <row r="131">
       <c r="A131" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -9152,10 +9159,10 @@
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -9178,10 +9185,10 @@
     </row>
     <row r="133">
       <c r="A133" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -9204,10 +9211,10 @@
     </row>
     <row r="134">
       <c r="A134" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -9230,10 +9237,10 @@
     </row>
     <row r="135">
       <c r="A135" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -9256,10 +9263,10 @@
     </row>
     <row r="136">
       <c r="A136" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -9282,10 +9289,10 @@
     </row>
     <row r="137">
       <c r="A137" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -9308,10 +9315,10 @@
     </row>
     <row r="138">
       <c r="A138" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -9334,10 +9341,10 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -9360,10 +9367,10 @@
     </row>
     <row r="140">
       <c r="A140" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -9386,10 +9393,10 @@
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -9412,10 +9419,10 @@
     </row>
     <row r="142">
       <c r="A142" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -9438,10 +9445,10 @@
     </row>
     <row r="143">
       <c r="A143" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -9464,10 +9471,10 @@
     </row>
     <row r="144">
       <c r="A144" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -9490,10 +9497,10 @@
     </row>
     <row r="145">
       <c r="A145" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -9516,10 +9523,10 @@
     </row>
     <row r="146">
       <c r="A146" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -9542,10 +9549,10 @@
     </row>
     <row r="147">
       <c r="A147" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -9568,10 +9575,10 @@
     </row>
     <row r="148">
       <c r="A148" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -9594,10 +9601,10 @@
     </row>
     <row r="149">
       <c r="A149" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -9620,10 +9627,10 @@
     </row>
     <row r="150">
       <c r="A150" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -9646,10 +9653,10 @@
     </row>
     <row r="151">
       <c r="A151" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -9672,10 +9679,10 @@
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -9698,10 +9705,10 @@
     </row>
     <row r="153">
       <c r="A153" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -9724,10 +9731,10 @@
     </row>
     <row r="154">
       <c r="A154" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -9750,10 +9757,10 @@
     </row>
     <row r="155">
       <c r="A155" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -9776,10 +9783,10 @@
     </row>
     <row r="156">
       <c r="A156" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -9802,10 +9809,10 @@
     </row>
     <row r="157">
       <c r="A157" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -9828,10 +9835,10 @@
     </row>
     <row r="158">
       <c r="A158" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -9854,10 +9861,10 @@
     </row>
     <row r="159">
       <c r="A159" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -9880,10 +9887,10 @@
     </row>
     <row r="160">
       <c r="A160" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -9906,10 +9913,10 @@
     </row>
     <row r="161">
       <c r="A161" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -9932,10 +9939,10 @@
     </row>
     <row r="162">
       <c r="A162" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -9958,10 +9965,10 @@
     </row>
     <row r="163">
       <c r="A163" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -9984,10 +9991,10 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -10010,10 +10017,10 @@
     </row>
     <row r="165">
       <c r="A165" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -10036,10 +10043,10 @@
     </row>
     <row r="166">
       <c r="A166" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -10062,10 +10069,10 @@
     </row>
     <row r="167">
       <c r="A167" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -10088,10 +10095,10 @@
     </row>
     <row r="168">
       <c r="A168" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -10114,10 +10121,10 @@
     </row>
     <row r="169">
       <c r="A169" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -10140,10 +10147,10 @@
     </row>
     <row r="170">
       <c r="A170" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -10166,10 +10173,10 @@
     </row>
     <row r="171">
       <c r="A171" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -10192,10 +10199,10 @@
     </row>
     <row r="172">
       <c r="A172" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -10218,10 +10225,10 @@
     </row>
     <row r="173">
       <c r="A173" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -10244,10 +10251,10 @@
     </row>
     <row r="174">
       <c r="A174" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -10270,10 +10277,10 @@
     </row>
     <row r="175">
       <c r="A175" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -10296,10 +10303,10 @@
     </row>
     <row r="176">
       <c r="A176" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -10322,10 +10329,10 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -10348,10 +10355,10 @@
     </row>
     <row r="178">
       <c r="A178" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -10374,10 +10381,10 @@
     </row>
     <row r="179">
       <c r="A179" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -10400,10 +10407,10 @@
     </row>
     <row r="180">
       <c r="A180" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -10426,10 +10433,10 @@
     </row>
     <row r="181">
       <c r="A181" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -10452,10 +10459,10 @@
     </row>
     <row r="182">
       <c r="A182" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -10478,10 +10485,10 @@
     </row>
     <row r="183">
       <c r="A183" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -10504,10 +10511,10 @@
     </row>
     <row r="184">
       <c r="A184" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -10530,10 +10537,10 @@
     </row>
     <row r="185">
       <c r="A185" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -10556,10 +10563,10 @@
     </row>
     <row r="186">
       <c r="A186" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -10582,10 +10589,10 @@
     </row>
     <row r="187">
       <c r="A187" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -10608,10 +10615,10 @@
     </row>
     <row r="188">
       <c r="A188" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -10634,10 +10641,10 @@
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -10660,10 +10667,10 @@
     </row>
     <row r="190">
       <c r="A190" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -10686,10 +10693,10 @@
     </row>
     <row r="191">
       <c r="A191" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -10712,10 +10719,10 @@
     </row>
     <row r="192">
       <c r="A192" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -10738,10 +10745,10 @@
     </row>
     <row r="193">
       <c r="A193" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -10764,10 +10771,10 @@
     </row>
     <row r="194">
       <c r="A194" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -10790,10 +10797,10 @@
     </row>
     <row r="195">
       <c r="A195" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -10816,10 +10823,10 @@
     </row>
     <row r="196">
       <c r="A196" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -10842,10 +10849,10 @@
     </row>
     <row r="197">
       <c r="A197" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -10868,10 +10875,10 @@
     </row>
     <row r="198">
       <c r="A198" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -10894,10 +10901,10 @@
     </row>
     <row r="199">
       <c r="A199" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -10920,10 +10927,10 @@
     </row>
     <row r="200">
       <c r="A200" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -10946,10 +10953,10 @@
     </row>
     <row r="201">
       <c r="A201" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -10972,10 +10979,10 @@
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -10998,10 +11005,10 @@
     </row>
     <row r="203">
       <c r="A203" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -11024,10 +11031,10 @@
     </row>
     <row r="204">
       <c r="A204" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -11050,10 +11057,10 @@
     </row>
     <row r="205">
       <c r="A205" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -11076,10 +11083,10 @@
     </row>
     <row r="206">
       <c r="A206" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -11102,10 +11109,10 @@
     </row>
     <row r="207">
       <c r="A207" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -11128,10 +11135,10 @@
     </row>
     <row r="208">
       <c r="A208" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
@@ -11154,10 +11161,10 @@
     </row>
     <row r="209">
       <c r="A209" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -11180,10 +11187,10 @@
     </row>
     <row r="210">
       <c r="A210" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
@@ -11206,10 +11213,10 @@
     </row>
     <row r="211">
       <c r="A211" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -11232,10 +11239,10 @@
     </row>
     <row r="212">
       <c r="A212" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -11258,10 +11265,10 @@
     </row>
     <row r="213">
       <c r="A213" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
@@ -11284,10 +11291,10 @@
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -11310,10 +11317,10 @@
     </row>
     <row r="215">
       <c r="A215" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -11336,10 +11343,10 @@
     </row>
     <row r="216">
       <c r="A216" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
@@ -11362,10 +11369,10 @@
     </row>
     <row r="217">
       <c r="A217" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -11388,10 +11395,10 @@
     </row>
     <row r="218">
       <c r="A218" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -11414,10 +11421,10 @@
     </row>
     <row r="219">
       <c r="A219" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -11440,10 +11447,10 @@
     </row>
     <row r="220">
       <c r="A220" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
@@ -11466,10 +11473,10 @@
     </row>
     <row r="221">
       <c r="A221" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -11492,10 +11499,10 @@
     </row>
     <row r="222">
       <c r="A222" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
@@ -11518,10 +11525,10 @@
     </row>
     <row r="223">
       <c r="A223" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -11544,10 +11551,10 @@
     </row>
     <row r="224">
       <c r="A224" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
@@ -11570,10 +11577,10 @@
     </row>
     <row r="225">
       <c r="A225" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
@@ -11596,10 +11603,10 @@
     </row>
     <row r="226">
       <c r="A226" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
@@ -11622,10 +11629,10 @@
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
@@ -11648,10 +11655,10 @@
     </row>
     <row r="228">
       <c r="A228" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
@@ -11674,10 +11681,10 @@
     </row>
     <row r="229">
       <c r="A229" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
@@ -11700,10 +11707,10 @@
     </row>
     <row r="230">
       <c r="A230" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
@@ -11726,10 +11733,10 @@
     </row>
     <row r="231">
       <c r="A231" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -11752,10 +11759,10 @@
     </row>
     <row r="232">
       <c r="A232" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
@@ -11778,10 +11785,10 @@
     </row>
     <row r="233">
       <c r="A233" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
@@ -11804,10 +11811,10 @@
     </row>
     <row r="234">
       <c r="A234" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
@@ -11830,10 +11837,10 @@
     </row>
     <row r="235">
       <c r="A235" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -11856,10 +11863,10 @@
     </row>
     <row r="236">
       <c r="A236" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
@@ -11882,10 +11889,10 @@
     </row>
     <row r="237">
       <c r="A237" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -11908,10 +11915,10 @@
     </row>
     <row r="238">
       <c r="A238" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
@@ -11934,10 +11941,10 @@
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
@@ -11960,10 +11967,10 @@
     </row>
     <row r="240">
       <c r="A240" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -11986,10 +11993,10 @@
     </row>
     <row r="241">
       <c r="A241" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
@@ -12012,10 +12019,10 @@
     </row>
     <row r="242">
       <c r="A242" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -12038,10 +12045,10 @@
     </row>
     <row r="243">
       <c r="A243" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -12064,10 +12071,10 @@
     </row>
     <row r="244">
       <c r="A244" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
@@ -12090,10 +12097,10 @@
     </row>
     <row r="245">
       <c r="A245" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -12116,10 +12123,10 @@
     </row>
     <row r="246">
       <c r="A246" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -12142,10 +12149,10 @@
     </row>
     <row r="247">
       <c r="A247" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
@@ -12168,10 +12175,10 @@
     </row>
     <row r="248">
       <c r="A248" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -12194,10 +12201,10 @@
     </row>
     <row r="249">
       <c r="A249" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -12220,10 +12227,10 @@
     </row>
     <row r="250">
       <c r="A250" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
@@ -12246,10 +12253,10 @@
     </row>
     <row r="251">
       <c r="A251" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
@@ -12272,10 +12279,10 @@
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
@@ -12298,10 +12305,10 @@
     </row>
     <row r="253">
       <c r="A253" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
@@ -12324,10 +12331,10 @@
     </row>
     <row r="254">
       <c r="A254" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
@@ -12350,10 +12357,10 @@
     </row>
     <row r="255">
       <c r="A255" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
@@ -12376,10 +12383,10 @@
     </row>
     <row r="256">
       <c r="A256" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
@@ -12402,10 +12409,10 @@
     </row>
     <row r="257">
       <c r="A257" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
@@ -12428,10 +12435,10 @@
     </row>
     <row r="258">
       <c r="A258" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
@@ -12454,10 +12461,10 @@
     </row>
     <row r="259">
       <c r="A259" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
@@ -12480,10 +12487,10 @@
     </row>
     <row r="260">
       <c r="A260" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
@@ -12506,10 +12513,10 @@
     </row>
     <row r="261">
       <c r="A261" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
@@ -12532,10 +12539,10 @@
     </row>
     <row r="262">
       <c r="A262" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
@@ -12558,10 +12565,10 @@
     </row>
     <row r="263">
       <c r="A263" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
@@ -12584,10 +12591,10 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
@@ -12610,10 +12617,10 @@
     </row>
     <row r="265">
       <c r="A265" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
@@ -12636,10 +12643,10 @@
     </row>
     <row r="266">
       <c r="A266" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
@@ -12662,10 +12669,10 @@
     </row>
     <row r="267">
       <c r="A267" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
@@ -12688,10 +12695,10 @@
     </row>
     <row r="268">
       <c r="A268" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
@@ -12714,10 +12721,10 @@
     </row>
     <row r="269">
       <c r="A269" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
@@ -12740,10 +12747,10 @@
     </row>
     <row r="270">
       <c r="A270" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
@@ -12766,10 +12773,10 @@
     </row>
     <row r="271">
       <c r="A271" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
@@ -12792,10 +12799,10 @@
     </row>
     <row r="272">
       <c r="A272" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
@@ -12818,10 +12825,10 @@
     </row>
     <row r="273">
       <c r="A273" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
@@ -12844,10 +12851,10 @@
     </row>
     <row r="274">
       <c r="A274" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
@@ -12870,10 +12877,10 @@
     </row>
     <row r="275">
       <c r="A275" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
@@ -12896,10 +12903,10 @@
     </row>
     <row r="276">
       <c r="A276" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
@@ -12922,10 +12929,10 @@
     </row>
     <row r="277">
       <c r="A277" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
@@ -12948,10 +12955,10 @@
     </row>
     <row r="278">
       <c r="A278" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
@@ -12974,10 +12981,10 @@
     </row>
     <row r="279">
       <c r="A279" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
@@ -13000,10 +13007,10 @@
     </row>
     <row r="280">
       <c r="A280" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
@@ -13026,10 +13033,10 @@
     </row>
     <row r="281">
       <c r="A281" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
@@ -13052,10 +13059,10 @@
     </row>
     <row r="282">
       <c r="A282" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
@@ -13078,10 +13085,10 @@
     </row>
     <row r="283">
       <c r="A283" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
@@ -13104,10 +13111,10 @@
     </row>
     <row r="284">
       <c r="A284" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
@@ -13130,10 +13137,10 @@
     </row>
     <row r="285">
       <c r="A285" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
@@ -13156,10 +13163,10 @@
     </row>
     <row r="286">
       <c r="A286" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
@@ -13182,10 +13189,10 @@
     </row>
     <row r="287">
       <c r="A287" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
@@ -13208,10 +13215,10 @@
     </row>
     <row r="288">
       <c r="A288" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
@@ -13234,10 +13241,10 @@
     </row>
     <row r="289">
       <c r="A289" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
@@ -13260,10 +13267,10 @@
     </row>
     <row r="290">
       <c r="A290" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
@@ -13286,10 +13293,10 @@
     </row>
     <row r="291">
       <c r="A291" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
@@ -13312,10 +13319,10 @@
     </row>
     <row r="292">
       <c r="A292" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
@@ -13338,10 +13345,10 @@
     </row>
     <row r="293">
       <c r="A293" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
@@ -13364,10 +13371,10 @@
     </row>
     <row r="294">
       <c r="A294" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
@@ -13390,10 +13397,10 @@
     </row>
     <row r="295">
       <c r="A295" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
@@ -13416,10 +13423,10 @@
     </row>
     <row r="296">
       <c r="A296" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
@@ -13442,10 +13449,10 @@
     </row>
     <row r="297">
       <c r="A297" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
@@ -13468,18 +13475,18 @@
     </row>
     <row r="298">
       <c r="A298" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
@@ -13502,10 +13509,10 @@
     </row>
     <row r="300">
       <c r="A300" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
@@ -13528,10 +13535,10 @@
     </row>
     <row r="301">
       <c r="A301" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
@@ -13554,10 +13561,10 @@
     </row>
     <row r="302">
       <c r="A302" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
@@ -13580,10 +13587,10 @@
     </row>
     <row r="303">
       <c r="A303" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
@@ -13606,10 +13613,10 @@
     </row>
     <row r="304">
       <c r="A304" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
@@ -13632,10 +13639,10 @@
     </row>
     <row r="305">
       <c r="A305" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
@@ -13658,10 +13665,10 @@
     </row>
     <row r="306">
       <c r="A306" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
@@ -13684,10 +13691,10 @@
     </row>
     <row r="307">
       <c r="A307" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
@@ -13710,10 +13717,10 @@
     </row>
     <row r="308">
       <c r="A308" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
@@ -13736,10 +13743,10 @@
     </row>
     <row r="309">
       <c r="A309" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
@@ -13762,10 +13769,10 @@
     </row>
     <row r="310">
       <c r="A310" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
@@ -13788,10 +13795,10 @@
     </row>
     <row r="311">
       <c r="A311" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="B311" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
@@ -13817,7 +13824,7 @@
         <v>730</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>431</v>
+        <v>729</v>
       </c>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
@@ -13843,7 +13850,7 @@
         <v>731</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
@@ -13869,7 +13876,7 @@
         <v>732</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
@@ -13895,7 +13902,7 @@
         <v>733</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
@@ -13921,7 +13928,7 @@
         <v>734</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>431</v>
+        <v>729</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
@@ -13947,7 +13954,7 @@
         <v>735</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>431</v>
+        <v>729</v>
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
@@ -13973,7 +13980,7 @@
         <v>736</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>431</v>
+        <v>729</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -13999,7 +14006,7 @@
         <v>737</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>431</v>
+        <v>729</v>
       </c>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
@@ -14025,7 +14032,7 @@
         <v>738</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
@@ -14051,7 +14058,7 @@
         <v>739</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
@@ -14077,7 +14084,7 @@
         <v>740</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
@@ -29015,6 +29022,7 @@
       <c r="T1000" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$B$322"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>